--- a/assets/generated/model2/VehicleTripDeliveryStartTime.xlsx
+++ b/assets/generated/model2/VehicleTripDeliveryStartTime.xlsx
@@ -348,158 +348,158 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>6588</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>6638.000066928068</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>6706.531194512969</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="F1">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
       <c r="G1">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="H1">
-        <v>10</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>6597.999999999999</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>6526</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>6607</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="G5">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>6706.531194512969</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>6730.935737600286</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>6526</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>6526</v>
       </c>
     </row>
   </sheetData>
